--- a/template/charts.xlsx
+++ b/template/charts.xlsx
@@ -718,8 +718,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.304315806077125"/>
-                  <c:y val="0.10758438726685711"/>
+                  <c:x val="-0.31543368917827586"/>
+                  <c:y val="6.3559290293359327E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -832,10 +832,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.39</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61</c:v>
+                  <c:v>0.57000000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B3">
         <f>1-B2</f>
-        <v>0.61</v>
+        <v>0.57000000000000006</v>
       </c>
     </row>
   </sheetData>
